--- a/examcom/schema/mysql/mhr_user.xlsx
+++ b/examcom/schema/mysql/mhr_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFE30B5-4B93-4A1D-902B-1335E022817B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DD17C2-EBD0-4745-8D74-96AE628897D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{265F86D4-03F5-4B49-B05F-37C07D165E1B}"/>
   </bookViews>
@@ -550,7 +550,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF5E8A-373A-49EA-9991-D3806390EE0C}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>

--- a/examcom/schema/mysql/mhr_user.xlsx
+++ b/examcom/schema/mysql/mhr_user.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/647282c8779b7a0a/git/exam/examcom/schema/mysql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DD17C2-EBD0-4745-8D74-96AE628897D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E320CC4-640C-4B1D-BA69-D514E0EEA333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{265F86D4-03F5-4B49-B05F-37C07D165E1B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{793400B9-DDAA-4F8A-88E0-068E208C5848}"/>
   </bookViews>
   <sheets>
-    <sheet name="emarf.mhr_user" sheetId="2" r:id="rId1"/>
+    <sheet name="EMARF.MHR_USER" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">emarf.mhr_user!$A$2:$L$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">emarf.mhr_user!$2:$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EMARF.MHR_USER!$A$2:$L$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">EMARF.MHR_USER!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,14 +38,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>権限</t>
+  </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>« NULL »</t>
-  </si>
-  <si>
     <t>b109f3bbbc244eb82441917ed06d618b9008dd09b3befd1b5e07394c706a8bb980b1d7785e5976ec049b46df5f1326af5a2ea6d103fd07c95385ffab0cacbc86</t>
   </si>
   <si>
@@ -84,7 +88,7 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>EMAIL</t>
+    <t>E_MAIL</t>
   </si>
   <si>
     <t>USER_MEI</t>
@@ -96,7 +100,49 @@
     <t>USER_ID</t>
   </si>
   <si>
-    <t>mysql/emarf : 2024/12/18 20:24:04</t>
+    <t>ローカル/XEPDB1：emarf : 2024/12/24 12:29:41</t>
+  </si>
+  <si>
+    <t>参照</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承認</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>否認</t>
+    <rPh sb="0" eb="2">
+      <t>ヒニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -198,7 +244,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
@@ -207,7 +253,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -216,7 +262,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{F9F0AB3E-314E-4BBA-B186-D178830CC9A1}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{C89A8B90-8012-4A19-AE50-23F5F09CFAE0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -242,39 +288,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -326,7 +372,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -437,6 +483,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -445,13 +498,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -516,147 +562,393 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF5E8A-373A-49EA-9991-D3806390EE0C}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABFDEDA-A4CC-4546-AE68-AE5E7A48551E}">
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
+      <selection activeCell="A3" sqref="A3:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="6" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45650</v>
+      </c>
+      <c r="I3" s="3">
+        <v>99</v>
+      </c>
+      <c r="J3" s="4">
+        <v>45650</v>
+      </c>
+      <c r="K3" s="3">
+        <v>99</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45650</v>
+      </c>
+      <c r="I4" s="3">
+        <v>99</v>
+      </c>
+      <c r="J4" s="4">
+        <v>45650</v>
+      </c>
+      <c r="K4" s="3">
+        <v>99</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45650</v>
+      </c>
+      <c r="I5" s="3">
+        <v>99</v>
+      </c>
+      <c r="J5" s="4">
+        <v>45650</v>
+      </c>
+      <c r="K5" s="3">
+        <v>99</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>45650</v>
+      </c>
+      <c r="I6" s="3">
+        <v>99</v>
+      </c>
+      <c r="J6" s="4">
+        <v>45650</v>
+      </c>
+      <c r="K6" s="3">
+        <v>99</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>45650</v>
+      </c>
+      <c r="I7" s="3">
+        <v>99</v>
+      </c>
+      <c r="J7" s="4">
+        <v>45650</v>
+      </c>
+      <c r="K7" s="3">
+        <v>99</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45650</v>
+      </c>
+      <c r="I8" s="3">
+        <v>99</v>
+      </c>
+      <c r="J8" s="4">
+        <v>45650</v>
+      </c>
+      <c r="K8" s="3">
+        <v>99</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>45650</v>
+      </c>
+      <c r="I9" s="3">
+        <v>99</v>
+      </c>
+      <c r="J9" s="4">
+        <v>45650</v>
+      </c>
+      <c r="K9" s="3">
+        <v>99</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>45644.842268518521</v>
+      </c>
+      <c r="I10" s="3">
+        <v>99</v>
+      </c>
+      <c r="J10" s="4">
+        <v>45644.842268518521</v>
+      </c>
+      <c r="K10" s="3">
+        <v>99</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>45644.842268518521</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>45644.842268518521</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L3" xr:uid="{EF01CDFE-029C-4E83-8DCD-154C2F5F2B9B}"/>
+  <autoFilter ref="A2:L3" xr:uid="{0CE1E93F-7509-4C7F-B5FE-FD3CCD2F16BE}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="263" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D &amp;T</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>

--- a/examcom/schema/mysql/mhr_user.xlsx
+++ b/examcom/schema/mysql/mhr_user.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/647282c8779b7a0a/git/exam/examcom/schema/mysql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E320CC4-640C-4B1D-BA69-D514E0EEA333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89A5833-3359-4D8E-B485-D8B5FD1B6861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{793400B9-DDAA-4F8A-88E0-068E208C5848}"/>
   </bookViews>
@@ -662,15 +662,11 @@
       <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
-        <v>45650</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="3">
         <v>99</v>
       </c>
-      <c r="J3" s="4">
-        <v>45650</v>
-      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="3">
         <v>99</v>
       </c>
@@ -700,15 +696,11 @@
       <c r="G4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <v>45650</v>
-      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="3">
         <v>99</v>
       </c>
-      <c r="J4" s="4">
-        <v>45650</v>
-      </c>
+      <c r="J4" s="4"/>
       <c r="K4" s="3">
         <v>99</v>
       </c>
@@ -738,15 +730,11 @@
       <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
-        <v>45650</v>
-      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="3">
         <v>99</v>
       </c>
-      <c r="J5" s="4">
-        <v>45650</v>
-      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="3">
         <v>99</v>
       </c>
@@ -776,15 +764,11 @@
       <c r="G6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
-        <v>45650</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="3">
         <v>99</v>
       </c>
-      <c r="J6" s="4">
-        <v>45650</v>
-      </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="3">
         <v>99</v>
       </c>
@@ -814,15 +798,11 @@
       <c r="G7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
-        <v>45650</v>
-      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="3">
         <v>99</v>
       </c>
-      <c r="J7" s="4">
-        <v>45650</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="3">
         <v>99</v>
       </c>
@@ -852,15 +832,11 @@
       <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
-        <v>45650</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="3">
         <v>99</v>
       </c>
-      <c r="J8" s="4">
-        <v>45650</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="3">
         <v>99</v>
       </c>
@@ -890,15 +866,11 @@
       <c r="G9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
-        <v>45650</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="3">
         <v>99</v>
       </c>
-      <c r="J9" s="4">
-        <v>45650</v>
-      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="3">
         <v>99</v>
       </c>
@@ -928,15 +900,11 @@
       <c r="G10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="4">
-        <v>45644.842268518521</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="3">
         <v>99</v>
       </c>
-      <c r="J10" s="4">
-        <v>45644.842268518521</v>
-      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="3">
         <v>99</v>
       </c>

--- a/examcom/schema/mysql/mhr_user.xlsx
+++ b/examcom/schema/mysql/mhr_user.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\exam\examcom\schema\mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89A5833-3359-4D8E-B485-D8B5FD1B6861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308406F5-83A4-4A1E-B90B-5623F141DD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{793400B9-DDAA-4F8A-88E0-068E208C5848}"/>
   </bookViews>
@@ -278,9 +278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,7 +318,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -424,7 +424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -566,7 +566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,29 +580,29 @@
       <selection activeCell="A3" sqref="A3:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="1"/>
+    <col min="10" max="10" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>99</v>
       </c>

--- a/examcom/schema/mysql/mhr_user.xlsx
+++ b/examcom/schema/mysql/mhr_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308406F5-83A4-4A1E-B90B-5623F141DD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B85A0B-B3AF-44E8-B9BA-61275EA6EBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{793400B9-DDAA-4F8A-88E0-068E208C5848}"/>
   </bookViews>
